--- a/My project/Luban/Config/Datas/StageInfo.xlsx
+++ b/My project/Luban/Config/Datas/StageInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F3D527-934A-4B00-92AB-FA921FB4AC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4381D0FD-0859-4978-9680-CE580818A1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/My project/Luban/Config/Datas/StageInfo.xlsx
+++ b/My project/Luban/Config/Datas/StageInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4381D0FD-0859-4978-9680-CE580818A1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F200E9-9567-4271-91A1-0A953171BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10110" yWindow="7185" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>##</t>
   </si>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list,int#ref=TbPlayerInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,6 +54,14 @@
   </si>
   <si>
     <t>20001|20002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001|10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list#sep=|,int#ref=TbPlayerInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,7 +394,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -403,7 +407,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -420,10 +424,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -435,11 +439,11 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>10001</v>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/My project/Luban/Config/Datas/StageInfo.xlsx
+++ b/My project/Luban/Config/Datas/StageInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F200E9-9567-4271-91A1-0A953171BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841EAFB1-B400-42FA-908E-E3AEE7466D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10110" yWindow="7185" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="7170" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,11 +57,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10001|10002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list#sep=|,int#ref=TbPlayerInfo</t>
+    <t>list#sep=|,string#ref=TbPlayerInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhouzhou|Timbuktu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +394,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -440,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
